--- a/Orçamento EAD 2013-2014.xlsx
+++ b/Orçamento EAD 2013-2014.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="110">
   <si>
     <t>Software</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Ephorus</t>
   </si>
   <si>
-    <t>Rastreamento de plágio</t>
-  </si>
-  <si>
     <t>Identificação de plágio em material produzido pelos professores.</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Adobe Connect</t>
   </si>
   <si>
-    <t>Computador para DI</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>Investimentos para 2013 e 2014 para a Coordenação</t>
   </si>
   <si>
-    <t xml:space="preserve">Treinamento remoto </t>
-  </si>
-  <si>
     <t>Uniformização do treinamento de conteudistas e tutores.</t>
   </si>
   <si>
@@ -328,6 +319,36 @@
   </si>
   <si>
     <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>Zoho Projects - Controle de tarefas de equipes multidisciplinares.</t>
+  </si>
+  <si>
+    <t>Assinatura Anual.</t>
+  </si>
+  <si>
+    <t>Controle centralizado do andamento de cada projeto (disciplina).</t>
+  </si>
+  <si>
+    <t>Monitoramento em tempo real das tarefas da equipe.</t>
+  </si>
+  <si>
+    <t>Controle do andamento dos projetos, evitando atrasos e periodos de baixa atividade.</t>
+  </si>
+  <si>
+    <t>https://projects.zoho.com</t>
+  </si>
+  <si>
+    <t>Preço estimado.</t>
+  </si>
+  <si>
+    <t>Treinamento remoto .</t>
+  </si>
+  <si>
+    <t>Rastreamento de plágio.</t>
+  </si>
+  <si>
+    <t>Computador para DI.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +550,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1555,8 +1576,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1587,7 @@
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
     <col min="7" max="7" width="30.109375" customWidth="1"/>
     <col min="8" max="8" width="36.88671875" customWidth="1"/>
     <col min="9" max="9" width="42" customWidth="1"/>
@@ -1574,7 +1595,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1634,7 +1655,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -1667,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -1697,7 +1718,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>22</v>
@@ -1727,7 +1748,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>27</v>
@@ -1908,7 +1929,7 @@
         <v>47</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2033,7 +2054,7 @@
         <v>2559</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>59</v>
@@ -2064,7 +2085,7 @@
         <v>948</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>64</v>
@@ -2110,7 +2131,7 @@
     </row>
     <row r="22" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="19">
         <v>1</v>
@@ -2124,31 +2145,50 @@
         <v>1200</v>
       </c>
       <c r="E22" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="I22" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="19" t="s">
+    </row>
+    <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20">
+        <v>599</v>
+      </c>
+      <c r="D23" s="5">
+        <f>Tabela5[[#This Row],[Custo Unitário]]*Tabela5[[#This Row],[Quantidade]]</f>
+        <v>599</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -2157,8 +2197,8 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="8">
-        <f>SUM(D19:D21)*2.3</f>
-        <v>9673.7999999999993</v>
+        <f>SUM(D19:D23)*2.3</f>
+        <v>13811.499999999998</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2179,7 +2219,7 @@
     </row>
     <row r="26" spans="1:10" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2228,24 +2268,24 @@
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -2259,19 +2299,19 @@
         <v>540</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
@@ -2345,10 +2385,10 @@
         <v>2500</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2371,7 +2411,7 @@
         <v>1000</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2407,13 +2447,13 @@
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="14">
         <f>D7+D16+D24+D30+D35</f>
-        <v>44897.5</v>
+        <v>49035.199999999997</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2423,7 +2463,7 @@
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
